--- a/docs/keys.xlsx
+++ b/docs/keys.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>SHIFT</t>
   </si>
   <si>
-    <t>P.Len</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>In step mode</t>
   </si>
   <si>
@@ -83,9 +78,6 @@
     <t>Hold</t>
   </si>
   <si>
-    <t>ArpA/B</t>
-  </si>
-  <si>
     <t>Arp.Type</t>
   </si>
   <si>
@@ -132,6 +124,18 @@
   </si>
   <si>
     <t>C.Opts</t>
+  </si>
+  <si>
+    <t>Trigs</t>
+  </si>
+  <si>
+    <t>Out Ch</t>
+  </si>
+  <si>
+    <t>In Ch</t>
+  </si>
+  <si>
+    <t>A/B</t>
   </si>
 </sst>
 </file>
@@ -169,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,14 +181,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,27 +551,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -533,94 +583,96 @@
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
         <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="O8" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
         <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -628,30 +680,140 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C11:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/keys.xlsx
+++ b/docs/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>SHIFT</t>
   </si>
@@ -136,6 +136,126 @@
   </si>
   <si>
     <t>A/B</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>CHORD</t>
+  </si>
+  <si>
+    <t>TRIG</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>C/Del</t>
+  </si>
+  <si>
+    <t>En/Vel1</t>
+  </si>
+  <si>
+    <t>Acc/Vel2</t>
+  </si>
+  <si>
+    <t>Tie/Gate1</t>
+  </si>
+  <si>
+    <t>Long/Gate2</t>
+  </si>
+  <si>
+    <t>Shift1/Int1</t>
+  </si>
+  <si>
+    <t>Shift2/Int2</t>
+  </si>
+  <si>
+    <t>………………</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>MUTATE</t>
+  </si>
+  <si>
+    <t>MIDI</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>transp/force</t>
+  </si>
+  <si>
+    <t>to scale/root</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>PITCH</t>
+  </si>
+  <si>
+    <t>D/Mode</t>
+  </si>
+  <si>
+    <t>F/Rate</t>
+  </si>
+  <si>
+    <t>A/Oct1</t>
+  </si>
+  <si>
+    <t>B/Oct2</t>
+  </si>
+  <si>
+    <t>C/Oct3</t>
+  </si>
+  <si>
+    <t>Chain A</t>
+  </si>
+  <si>
+    <t>Chain B</t>
+  </si>
+  <si>
+    <t>OCTAVE</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>SYNC</t>
+  </si>
+  <si>
+    <t>TRANSPOSE</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>VELOCITY</t>
   </si>
 </sst>
 </file>
@@ -159,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +289,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +377,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,108 +880,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:Q25"/>
+  <dimension ref="A3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
